--- a/Codigos_2023-2/Asistencia/Grupo 52.xlsx
+++ b/Codigos_2023-2/Asistencia/Grupo 52.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Codigos_2023-2\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D35FEA2-8597-4136-A839-BBBF0CEEB812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D608B8A7-2ADC-4BC9-9F7A-E9C72190FCD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
   <si>
     <t>SISTEMA DE REGISTRO ACADÉMICO Y ADMISIONES (SRA)</t>
   </si>
@@ -127,12 +127,6 @@
     <t>lorenalenis824@gmail.com</t>
   </si>
   <si>
-    <t>ORTIZ CALAN FELIPE</t>
-  </si>
-  <si>
-    <t>piedad_calan@hotmail.com</t>
-  </si>
-  <si>
     <t>ORTIZ VILLAQUIRAN JULIAN ALBERTO</t>
   </si>
   <si>
@@ -187,22 +181,10 @@
     <t>santitorresrojas@gmail.com</t>
   </si>
   <si>
-    <t>TUNUBALA DAGUA JESUS ALBERTO</t>
-  </si>
-  <si>
-    <t>alberto97011@gmail.com</t>
-  </si>
-  <si>
     <t>VALDES GOMEZ SAMUEL ALBERTO</t>
   </si>
   <si>
     <t>samuelvaldesgomez2006@gmail.com</t>
-  </si>
-  <si>
-    <t>VELASQUEZ BEDOYA SANTIAGO</t>
-  </si>
-  <si>
-    <t>santiagomotog6513@gmail.com</t>
   </si>
   <si>
     <t>VILLAMIL LARGO JOAN ESTEBAN</t>
@@ -280,7 +262,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -660,11 +642,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -743,52 +725,52 @@
         <v>7</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
@@ -1131,10 +1113,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2">
-        <v>202380642</v>
+        <v>202059907</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>35</v>
@@ -1157,10 +1139,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2">
-        <v>202059907</v>
+        <v>202380356</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>37</v>
@@ -1183,10 +1165,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2">
-        <v>202380356</v>
+        <v>202380690</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>39</v>
@@ -1209,10 +1191,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2">
-        <v>202380690</v>
+        <v>202380701</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>41</v>
@@ -1235,10 +1217,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2">
-        <v>202380701</v>
+        <v>202380368</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>43</v>
@@ -1261,10 +1243,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2">
-        <v>202380368</v>
+        <v>202380618</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>45</v>
@@ -1287,10 +1269,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2">
-        <v>202380618</v>
+        <v>202380712</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>47</v>
@@ -1313,10 +1295,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2">
-        <v>202380712</v>
+        <v>202380422</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>49</v>
@@ -1339,10 +1321,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2">
-        <v>202380422</v>
+        <v>202380301</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>51</v>
@@ -1365,10 +1347,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>202380301</v>
+        <v>202380346</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>53</v>
@@ -1391,10 +1373,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>202379924</v>
+        <v>202380466</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>55</v>
@@ -1417,10 +1399,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>202380346</v>
+        <v>202380556</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>57</v>
@@ -1443,10 +1425,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>202380378</v>
+        <v>202380741</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>59</v>
@@ -1469,10 +1451,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>202380466</v>
+        <v>202380795</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>61</v>
@@ -1490,84 +1472,6 @@
         <v>3743</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>28</v>
-      </c>
-      <c r="B32" s="2">
-        <v>202380556</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3">
-        <v>3743</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>29</v>
-      </c>
-      <c r="B33" s="2">
-        <v>202380741</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3">
-        <v>3743</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>30</v>
-      </c>
-      <c r="B34" s="2">
-        <v>202380795</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3">
-        <v>3743</v>
-      </c>
-      <c r="L34" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Codigos_2023-2/Asistencia/Grupo 52.xlsx
+++ b/Codigos_2023-2/Asistencia/Grupo 52.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Codigos_2023-2\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D608B8A7-2ADC-4BC9-9F7A-E9C72190FCD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5E3EEF-480C-4393-A84E-978A6C906439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
   <si>
     <t>SISTEMA DE REGISTRO ACADÉMICO Y ADMISIONES (SRA)</t>
   </si>
@@ -257,6 +257,18 @@
   </si>
   <si>
     <t>Semana 16</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>VELASQUEZ BEDOYA SANTIAGO</t>
+  </si>
+  <si>
+    <t>santiagomotog6513@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -643,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1032,6 +1044,9 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="M14" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -1085,7 +1100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1111,7 +1126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -1137,7 +1152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -1163,7 +1178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -1189,7 +1204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -1212,10 +1227,10 @@
         <v>3743</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -1241,7 +1256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -1267,7 +1282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -1293,7 +1308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -1316,10 +1331,13 @@
         <v>3743</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="M25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -1345,7 +1363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -1370,8 +1388,11 @@
       <c r="L27" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1394,10 +1415,10 @@
         <v>3743</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1423,7 +1444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1446,10 +1467,13 @@
         <v>3743</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="M30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1473,6 +1497,35 @@
       </c>
       <c r="L31" s="3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>33</v>
+      </c>
+      <c r="B32" s="2">
+        <v>202380378</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3">
+        <v>3743</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M32" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Codigos_2023-2/Asistencia/Grupo 52.xlsx
+++ b/Codigos_2023-2/Asistencia/Grupo 52.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Codigos_2023-2\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5E3EEF-480C-4393-A84E-978A6C906439}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6540E2-314C-488D-9E11-6DEFA8015627}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="83">
   <si>
     <t>SISTEMA DE REGISTRO ACADÉMICO Y ADMISIONES (SRA)</t>
   </si>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1047,6 +1047,9 @@
       <c r="M14" t="s">
         <v>80</v>
       </c>
+      <c r="N14" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -1100,7 +1103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1126,7 +1129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -1152,7 +1155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -1178,7 +1181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -1204,7 +1207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -1230,7 +1233,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -1256,7 +1259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -1281,8 +1284,11 @@
       <c r="L23" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -1308,7 +1314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -1336,8 +1342,11 @@
       <c r="M25" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -1363,7 +1372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -1391,8 +1400,11 @@
       <c r="M27" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1418,7 +1430,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1444,7 +1456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1472,8 +1484,11 @@
       <c r="M30" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1499,7 +1514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>33</v>
       </c>

--- a/Codigos_2023-2/Asistencia/Grupo 52.xlsx
+++ b/Codigos_2023-2/Asistencia/Grupo 52.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Codigos_2023-2\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6540E2-314C-488D-9E11-6DEFA8015627}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D424C9B2-0C56-4EE8-85DA-D87C2D771A08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
   <si>
     <t>SISTEMA DE REGISTRO ACADÉMICO Y ADMISIONES (SRA)</t>
   </si>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -836,6 +836,15 @@
       <c r="L6" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="M6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1050,6 +1059,9 @@
       <c r="N14" t="s">
         <v>80</v>
       </c>
+      <c r="O14" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -1103,7 +1115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1129,7 +1141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -1155,7 +1167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -1181,7 +1193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -1207,7 +1219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -1232,8 +1244,11 @@
       <c r="L21" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -1259,7 +1274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -1287,8 +1302,11 @@
       <c r="N23" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -1314,7 +1332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -1345,8 +1363,11 @@
       <c r="N25" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -1372,7 +1393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -1403,8 +1424,11 @@
       <c r="N27" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1430,7 +1454,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1456,7 +1480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1487,8 +1511,11 @@
       <c r="N30" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1514,7 +1541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>33</v>
       </c>
@@ -1540,6 +1567,9 @@
         <v>80</v>
       </c>
       <c r="M32" t="s">
+        <v>80</v>
+      </c>
+      <c r="O32" t="s">
         <v>80</v>
       </c>
     </row>

--- a/Codigos_2023-2/Asistencia/Grupo 52.xlsx
+++ b/Codigos_2023-2/Asistencia/Grupo 52.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Codigos_2023-2\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D424C9B2-0C56-4EE8-85DA-D87C2D771A08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AABE1E-5F3E-4CCD-91F9-3C5FA6F83BBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="83">
   <si>
     <t>SISTEMA DE REGISTRO ACADÉMICO Y ADMISIONES (SRA)</t>
   </si>
@@ -275,7 +275,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -294,6 +294,11 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -321,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -339,6 +344,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -657,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -845,6 +853,9 @@
       <c r="O6" t="s">
         <v>80</v>
       </c>
+      <c r="P6" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1577,7 +1588,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Codigos_2023-2/Asistencia/Grupo 52.xlsx
+++ b/Codigos_2023-2/Asistencia/Grupo 52.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Codigos_2023-2\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AABE1E-5F3E-4CCD-91F9-3C5FA6F83BBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F9B545-9ED3-4346-8CD1-03D072E14248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="83">
   <si>
     <t>SISTEMA DE REGISTRO ACADÉMICO Y ADMISIONES (SRA)</t>
   </si>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1073,6 +1073,9 @@
       <c r="O14" t="s">
         <v>80</v>
       </c>
+      <c r="P14" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -1126,7 +1129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1152,7 +1155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -1178,7 +1181,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -1204,7 +1207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -1230,7 +1233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -1258,8 +1261,11 @@
       <c r="O21" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -1285,7 +1291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -1316,8 +1322,11 @@
       <c r="O23" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -1343,7 +1352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -1377,8 +1386,11 @@
       <c r="O25" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -1404,7 +1416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -1438,8 +1450,11 @@
       <c r="O27" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1465,7 +1480,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1491,7 +1506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1525,8 +1540,11 @@
       <c r="O30" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1552,7 +1570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>33</v>
       </c>
@@ -1581,6 +1599,9 @@
         <v>80</v>
       </c>
       <c r="O32" t="s">
+        <v>80</v>
+      </c>
+      <c r="P32" t="s">
         <v>80</v>
       </c>
     </row>

--- a/Codigos_2023-2/Asistencia/Grupo 52.xlsx
+++ b/Codigos_2023-2/Asistencia/Grupo 52.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Codigos_2023-2\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F9B545-9ED3-4346-8CD1-03D072E14248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73D3F48-A9B4-4871-BAE2-3C1EBD1387A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="83">
   <si>
     <t>SISTEMA DE REGISTRO ACADÉMICO Y ADMISIONES (SRA)</t>
   </si>
@@ -665,9 +665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -856,6 +854,18 @@
       <c r="P6" s="5" t="s">
         <v>80</v>
       </c>
+      <c r="Q6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R6" t="s">
+        <v>80</v>
+      </c>
+      <c r="S6" t="s">
+        <v>80</v>
+      </c>
+      <c r="T6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1076,6 +1086,18 @@
       <c r="P14" t="s">
         <v>80</v>
       </c>
+      <c r="Q14" t="s">
+        <v>80</v>
+      </c>
+      <c r="R14" t="s">
+        <v>80</v>
+      </c>
+      <c r="S14" t="s">
+        <v>80</v>
+      </c>
+      <c r="T14" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -1129,7 +1151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1155,7 +1177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -1181,7 +1203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -1207,7 +1229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -1233,7 +1255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -1264,8 +1286,14 @@
       <c r="P21" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" t="s">
+        <v>80</v>
+      </c>
+      <c r="S21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -1291,7 +1319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -1325,8 +1353,20 @@
       <c r="P23" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" t="s">
+        <v>80</v>
+      </c>
+      <c r="R23" t="s">
+        <v>80</v>
+      </c>
+      <c r="S23" t="s">
+        <v>80</v>
+      </c>
+      <c r="T23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -1351,8 +1391,11 @@
       <c r="L24" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="S24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -1389,8 +1432,20 @@
       <c r="P25" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" t="s">
+        <v>80</v>
+      </c>
+      <c r="R25" t="s">
+        <v>80</v>
+      </c>
+      <c r="S25" t="s">
+        <v>80</v>
+      </c>
+      <c r="T25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -1416,7 +1471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -1453,8 +1508,20 @@
       <c r="P27" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q27" t="s">
+        <v>80</v>
+      </c>
+      <c r="R27" t="s">
+        <v>80</v>
+      </c>
+      <c r="S27" t="s">
+        <v>80</v>
+      </c>
+      <c r="T27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1480,7 +1547,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1506,7 +1573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1543,8 +1610,20 @@
       <c r="P30" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q30" t="s">
+        <v>80</v>
+      </c>
+      <c r="R30" t="s">
+        <v>80</v>
+      </c>
+      <c r="S30" t="s">
+        <v>80</v>
+      </c>
+      <c r="T30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1570,7 +1649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>33</v>
       </c>
@@ -1602,6 +1681,18 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>80</v>
+      </c>
+      <c r="R32" t="s">
+        <v>80</v>
+      </c>
+      <c r="S32" t="s">
+        <v>80</v>
+      </c>
+      <c r="T32" t="s">
         <v>80</v>
       </c>
     </row>

--- a/Codigos_2023-2/Asistencia/Grupo 52.xlsx
+++ b/Codigos_2023-2/Asistencia/Grupo 52.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Codigos_2023-2\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73D3F48-A9B4-4871-BAE2-3C1EBD1387A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B95F0C-E94C-4A33-8D87-017DFE2C49D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="83">
   <si>
     <t>SISTEMA DE REGISTRO ACADÉMICO Y ADMISIONES (SRA)</t>
   </si>
@@ -665,7 +665,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -866,6 +868,9 @@
       <c r="T6" t="s">
         <v>80</v>
       </c>
+      <c r="U6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1096,6 +1101,9 @@
         <v>80</v>
       </c>
       <c r="T14" t="s">
+        <v>80</v>
+      </c>
+      <c r="U14" t="s">
         <v>80</v>
       </c>
     </row>

--- a/Codigos_2023-2/Asistencia/Grupo 52.xlsx
+++ b/Codigos_2023-2/Asistencia/Grupo 52.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Codigos_2023-2\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B95F0C-E94C-4A33-8D87-017DFE2C49D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38243E64-5F56-4ECF-80F3-4809F0B13F1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="83">
   <si>
     <t>SISTEMA DE REGISTRO ACADÉMICO Y ADMISIONES (SRA)</t>
   </si>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -871,6 +871,9 @@
       <c r="U6" t="s">
         <v>80</v>
       </c>
+      <c r="V6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1158,8 +1161,11 @@
       <c r="L16" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1185,7 +1191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -1211,7 +1217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -1237,7 +1243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -1263,7 +1269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -1300,8 +1306,11 @@
       <c r="S21" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -1327,7 +1336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -1374,7 +1383,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -1403,7 +1412,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -1452,8 +1461,11 @@
       <c r="T25" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -1478,8 +1490,11 @@
       <c r="L26" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -1528,8 +1543,11 @@
       <c r="T27" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1555,7 +1573,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1581,7 +1599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1631,7 +1649,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1657,7 +1675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>33</v>
       </c>
@@ -1701,6 +1719,9 @@
         <v>80</v>
       </c>
       <c r="T32" t="s">
+        <v>80</v>
+      </c>
+      <c r="V32" t="s">
         <v>80</v>
       </c>
     </row>

--- a/Codigos_2023-2/Asistencia/Grupo 52.xlsx
+++ b/Codigos_2023-2/Asistencia/Grupo 52.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Codigos_2023-2\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38243E64-5F56-4ECF-80F3-4809F0B13F1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B642AC-DFB5-4775-AC03-4F761F1021EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="83">
   <si>
     <t>SISTEMA DE REGISTRO ACADÉMICO Y ADMISIONES (SRA)</t>
   </si>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -874,6 +874,9 @@
       <c r="V6" t="s">
         <v>80</v>
       </c>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1109,6 +1112,12 @@
       <c r="U14" t="s">
         <v>80</v>
       </c>
+      <c r="V14" t="s">
+        <v>80</v>
+      </c>
+      <c r="W14" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -1165,7 +1174,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1191,7 +1200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -1217,7 +1226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -1243,7 +1252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -1269,7 +1278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -1309,8 +1318,11 @@
       <c r="V21" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -1336,7 +1348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -1383,7 +1395,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -1412,7 +1424,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -1464,8 +1476,11 @@
       <c r="V25" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -1493,8 +1508,11 @@
       <c r="V26" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -1546,8 +1564,11 @@
       <c r="V27" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1573,7 +1594,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1599,7 +1620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1649,7 +1670,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1675,7 +1696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>33</v>
       </c>
@@ -1722,6 +1743,9 @@
         <v>80</v>
       </c>
       <c r="V32" t="s">
+        <v>80</v>
+      </c>
+      <c r="W32" t="s">
         <v>80</v>
       </c>
     </row>

--- a/Codigos_2023-2/Asistencia/Grupo 52.xlsx
+++ b/Codigos_2023-2/Asistencia/Grupo 52.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Codigos_2023-2\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B642AC-DFB5-4775-AC03-4F761F1021EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AD5AAE-3983-476C-96A7-CEE0C9AEAC25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="83">
   <si>
     <t>SISTEMA DE REGISTRO ACADÉMICO Y ADMISIONES (SRA)</t>
   </si>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView tabSelected="1" topLeftCell="J7" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1174,7 +1174,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -1394,8 +1394,11 @@
       <c r="T23" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -1424,7 +1427,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -1480,7 +1483,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -1512,7 +1515,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -1568,7 +1571,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1594,7 +1597,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1620,7 +1623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1669,8 +1672,17 @@
       <c r="T30" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="W30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X30" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1696,7 +1708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>33</v>
       </c>

--- a/Codigos_2023-2/Asistencia/Grupo 52.xlsx
+++ b/Codigos_2023-2/Asistencia/Grupo 52.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Codigos_2023-2\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AD5AAE-3983-476C-96A7-CEE0C9AEAC25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972CD4C3-42F8-4EA1-A7F0-558BDF1DA223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="83">
   <si>
     <t>SISTEMA DE REGISTRO ACADÉMICO Y ADMISIONES (SRA)</t>
   </si>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J7" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1173,6 +1173,9 @@
       <c r="V16" t="s">
         <v>80</v>
       </c>
+      <c r="X16" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -1321,6 +1324,9 @@
       <c r="W21" t="s">
         <v>80</v>
       </c>
+      <c r="X21" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -1426,6 +1432,9 @@
       <c r="S24" t="s">
         <v>80</v>
       </c>
+      <c r="X24" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -1570,6 +1579,9 @@
       <c r="W27" t="s">
         <v>80</v>
       </c>
+      <c r="X27" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -1758,6 +1770,9 @@
         <v>80</v>
       </c>
       <c r="W32" t="s">
+        <v>80</v>
+      </c>
+      <c r="X32" t="s">
         <v>80</v>
       </c>
     </row>

--- a/Codigos_2023-2/Asistencia/Grupo 52.xlsx
+++ b/Codigos_2023-2/Asistencia/Grupo 52.xlsx
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Monitorias\Codigos_2023-2\Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972CD4C3-42F8-4EA1-A7F0-558BDF1DA223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD072C0-8FF4-4776-AA2D-7FD160C9CA59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="82">
   <si>
     <t>SISTEMA DE REGISTRO ACADÉMICO Y ADMISIONES (SRA)</t>
   </si>
@@ -256,19 +264,16 @@
     <t>Semana 15</t>
   </si>
   <si>
-    <t>Semana 16</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
-    <t>VELASQUEZ BEDOYA SANTIAGO</t>
-  </si>
-  <si>
-    <t>santiagomotog6513@gmail.com</t>
+    <t>DILAN JOSEPH SANCHEZ SILVA</t>
+  </si>
+  <si>
+    <t>Asistencias</t>
+  </si>
+  <si>
+    <t>SANTIAGO VELASQUEZ BEDOYA</t>
   </si>
 </sst>
 </file>
@@ -326,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -347,6 +352,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -663,15 +676,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA32"/>
+  <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane xSplit="8" ySplit="15" topLeftCell="U25" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="AB33" sqref="AB33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -688,7 +705,7 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -705,7 +722,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -722,7 +739,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -786,14 +803,15 @@
       <c r="Y4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AA4" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA4" s="1"/>
+      <c r="AB4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -818,8 +836,12 @@
       <c r="L5" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB5">
+        <f>COUNTIF(L5:AA5,"V")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -845,40 +867,44 @@
         <v>8</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" ref="AB6:AB33" si="0">COUNTIF(L6:AA6,"V")</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -903,8 +929,12 @@
       <c r="L7" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -929,8 +959,12 @@
       <c r="L8" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -955,8 +989,12 @@
       <c r="L9" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -981,8 +1019,12 @@
       <c r="L10" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1007,8 +1049,12 @@
       <c r="L11" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1033,8 +1079,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1059,8 +1109,12 @@
       <c r="L13" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1086,40 +1140,50 @@
         <v>8</v>
       </c>
       <c r="M14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="U14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="V14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1144,8 +1208,12 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1171,13 +1239,20 @@
         <v>8</v>
       </c>
       <c r="V16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="X16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -1202,8 +1277,12 @@
       <c r="L17" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="AB17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -1228,8 +1307,12 @@
       <c r="L18" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="AB18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -1254,8 +1337,12 @@
       <c r="L19" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="AB19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -1280,8 +1367,12 @@
       <c r="L20" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="AB20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -1303,32 +1394,37 @@
       <c r="K21" s="3">
         <v>3743</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="L21" s="3"/>
       <c r="O21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="V21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="X21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -1353,8 +1449,12 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="AB22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -1380,31 +1480,35 @@
         <v>8</v>
       </c>
       <c r="N23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="T23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -1430,13 +1534,23 @@
         <v>8</v>
       </c>
       <c r="S24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="X24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -1458,41 +1572,46 @@
       <c r="K25" s="3">
         <v>3743</v>
       </c>
-      <c r="L25" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="L25" s="3"/>
       <c r="M25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="V25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -1518,13 +1637,17 @@
         <v>8</v>
       </c>
       <c r="V26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -1550,40 +1673,50 @@
         <v>8</v>
       </c>
       <c r="M27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="T27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="V27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="X27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1605,11 +1738,13 @@
       <c r="K28" s="3">
         <v>3743</v>
       </c>
-      <c r="L28" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="L28" s="3"/>
+      <c r="AB28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1634,8 +1769,12 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="AB29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1657,44 +1796,46 @@
       <c r="K30" s="3">
         <v>3743</v>
       </c>
-      <c r="L30" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="L30" s="3"/>
       <c r="M30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="T30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="V30" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W30" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="X30" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1716,67 +1857,94 @@
       <c r="K31" s="3">
         <v>3743</v>
       </c>
-      <c r="L31" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>33</v>
-      </c>
-      <c r="B32" s="2">
-        <v>202380378</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="L31" s="3"/>
+      <c r="AB31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="3">
-        <v>3743</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
       <c r="M32" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="N32" t="s">
+        <v>78</v>
       </c>
       <c r="O32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="S32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="T32" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="U32" t="s">
+        <v>78</v>
       </c>
       <c r="V32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="X32" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="Y33" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C32:F32"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
